--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1108">
   <si>
     <t>anchor score</t>
   </si>
@@ -373,643 +373,643 @@
     <t>dying</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>inflation</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>producers</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>caused</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>causing</t>
-  </si>
-  <si>
-    <t>inflation</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>producers</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>went</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3706,7 +3706,7 @@
         <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K4">
         <v>0.8740157480314961</v>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K5">
         <v>0.864406779661017</v>
@@ -4035,7 +4035,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K8">
         <v>0.7707006369426752</v>
@@ -4085,7 +4085,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K9">
         <v>0.7333333333333333</v>
@@ -4235,28 +4235,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="K12">
-        <v>0.6883116883116883</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L12">
         <v>159</v>
       </c>
       <c r="M12">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4285,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K13">
         <v>0.647887323943662</v>
@@ -4335,28 +4335,28 @@
         <v>97</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="K14">
-        <v>0.600609756097561</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>209</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4388,13 +4388,13 @@
         <v>331</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4435,7 +4435,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K16">
         <v>0.5714285714285714</v>
@@ -4485,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K17">
         <v>0.5657894736842105</v>
@@ -4535,7 +4535,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K18">
         <v>0.5632183908045977</v>
@@ -4585,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K19">
         <v>0.543859649122807</v>
@@ -4685,7 +4685,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K21">
         <v>0.5</v>
@@ -4835,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K24">
         <v>0.4468085106382979</v>
@@ -4885,7 +4885,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K25">
         <v>0.4375</v>
@@ -5035,7 +5035,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K28">
         <v>0.3952380952380952</v>
@@ -5135,7 +5135,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K30">
         <v>0.3734177215189873</v>
@@ -5285,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K33">
         <v>0.3548387096774194</v>
@@ -5335,7 +5335,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K34">
         <v>0.3447432762836186</v>
@@ -5535,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K38">
         <v>0.3354037267080746</v>
@@ -6035,7 +6035,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K48">
         <v>0.3125</v>
@@ -6135,7 +6135,7 @@
         <v>21</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K50">
         <v>0.3095238095238095</v>
@@ -6185,7 +6185,7 @@
         <v>13</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K51">
         <v>0.3090909090909091</v>
@@ -6685,7 +6685,7 @@
         <v>14</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K61">
         <v>0.282051282051282</v>
@@ -6735,7 +6735,7 @@
         <v>14</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K62">
         <v>0.28125</v>
@@ -6835,7 +6835,7 @@
         <v>6</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K64">
         <v>0.2706611570247934</v>
@@ -6985,7 +6985,7 @@
         <v>39</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K67">
         <v>0.2682926829268293</v>
@@ -7335,7 +7335,7 @@
         <v>15</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K74">
         <v>0.25</v>
@@ -7385,7 +7385,7 @@
         <v>21</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K75">
         <v>0.25</v>
@@ -7585,7 +7585,7 @@
         <v>27</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K79">
         <v>0.25</v>
@@ -7935,7 +7935,7 @@
         <v>31</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K86">
         <v>0.2463414634146341</v>
@@ -8035,7 +8035,7 @@
         <v>16</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K88">
         <v>0.2394366197183098</v>
@@ -8235,7 +8235,7 @@
         <v>6</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K92">
         <v>0.2346368715083799</v>
@@ -8335,7 +8335,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K94">
         <v>0.2320261437908497</v>
@@ -8385,7 +8385,7 @@
         <v>6</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K95">
         <v>0.2319004524886878</v>
@@ -8735,7 +8735,7 @@
         <v>7</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K102">
         <v>0.2293577981651376</v>
@@ -8785,7 +8785,7 @@
         <v>14</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K103">
         <v>0.2291666666666667</v>
@@ -8835,7 +8835,7 @@
         <v>28</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K104">
         <v>0.2285714285714286</v>
@@ -8885,7 +8885,7 @@
         <v>7</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K105">
         <v>0.2273534635879219</v>
@@ -8935,7 +8935,7 @@
         <v>7</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K106">
         <v>0.2272727272727273</v>
@@ -9035,7 +9035,7 @@
         <v>16</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K108">
         <v>0.2258064516129032</v>
@@ -9085,7 +9085,7 @@
         <v>16</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K109">
         <v>0.2251461988304093</v>
@@ -9235,7 +9235,7 @@
         <v>17</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K112">
         <v>0.2222222222222222</v>
@@ -9317,25 +9317,25 @@
         <v>0.1</v>
       </c>
       <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
         <v>8</v>
       </c>
-      <c r="D114">
-        <v>167</v>
-      </c>
       <c r="E114">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F114">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
       </c>
       <c r="H114">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K114">
         <v>0.2207792207792208</v>
@@ -9367,25 +9367,25 @@
         <v>0.1</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K115">
         <v>0.2191780821917808</v>
@@ -9514,7 +9514,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>397</v>
@@ -9635,7 +9635,7 @@
         <v>10</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K120">
         <v>0.2142857142857143</v>
@@ -9820,22 +9820,22 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
         <v>10</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K124">
         <v>0.2121212121212121</v>
@@ -9867,22 +9867,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="F125">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>402</v>
@@ -9914,28 +9914,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K126">
         <v>0.2083333333333333</v>
@@ -10014,13 +10014,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>404</v>
@@ -10064,28 +10064,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.08391608391608392</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C129">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F129">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K129">
         <v>0.2048114434330299</v>
@@ -10135,7 +10135,7 @@
         <v>11</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K130">
         <v>0.2043010752688172</v>
@@ -10167,25 +10167,25 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E131">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F131">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K131">
         <v>0.2033898305084746</v>
@@ -10235,7 +10235,7 @@
         <v>11</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K132">
         <v>0.2024922118380062</v>
@@ -10264,25 +10264,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E133">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>405</v>
@@ -10314,13 +10314,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>406</v>
@@ -10370,22 +10370,22 @@
         <v>3</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>36</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K135">
         <v>0.2</v>
@@ -10417,22 +10417,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>407</v>
@@ -10467,22 +10467,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>408</v>
@@ -10514,25 +10514,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>409</v>
@@ -10564,13 +10564,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>410</v>
@@ -10635,7 +10635,7 @@
         <v>25</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K140">
         <v>0.2</v>
@@ -10664,13 +10664,13 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>411</v>
@@ -10714,25 +10714,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.07407407407407407</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>412</v>
@@ -10814,25 +10814,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E144">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F144">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>414</v>
@@ -10864,25 +10864,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>415</v>
@@ -10914,25 +10914,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.06976744186046512</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>416</v>
@@ -10970,16 +10970,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>14</v>
@@ -11020,16 +11020,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>14</v>
@@ -11064,7 +11064,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>419</v>
@@ -11114,25 +11114,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>420</v>
@@ -11270,16 +11270,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
         <v>15</v>
@@ -11320,16 +11320,16 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
         <v>15</v>
@@ -11370,22 +11370,22 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>15</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K155">
         <v>0.1937984496124031</v>
@@ -11414,28 +11414,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0625</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="E156">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K156">
         <v>0.1926171320397539</v>
@@ -11464,7 +11464,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>425</v>
@@ -11514,28 +11514,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.06106870229007633</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C158">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K158">
         <v>0.1904761904761905</v>
@@ -11567,10 +11567,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -11582,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>426</v>
@@ -11620,22 +11620,22 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>16</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K160">
         <v>0.1888412017167382</v>
@@ -11667,22 +11667,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>427</v>
@@ -11714,25 +11714,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>428</v>
@@ -11764,25 +11764,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>429</v>
@@ -11820,16 +11820,16 @@
         <v>2</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>34</v>
@@ -11917,22 +11917,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F166">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>432</v>
@@ -11964,7 +11964,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>433</v>
@@ -12014,25 +12014,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>434</v>
@@ -12067,22 +12067,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>435</v>
@@ -12120,16 +12120,16 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>18</v>
@@ -12167,22 +12167,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="F171">
-        <v>0.6699999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>437</v>
@@ -12214,13 +12214,13 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>438</v>
@@ -12264,25 +12264,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D173">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E173">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F173">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>439</v>
@@ -12314,13 +12314,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>440</v>
@@ -12364,28 +12364,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K175">
         <v>0.1794871794871795</v>
@@ -12417,22 +12417,22 @@
         <v>0.05</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>441</v>
@@ -12520,13 +12520,13 @@
         <v>2</v>
       </c>
       <c r="D178">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E178">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F178">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -12535,7 +12535,7 @@
         <v>38</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K178">
         <v>0.1774193548387097</v>
@@ -12564,25 +12564,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>443</v>
@@ -12614,25 +12614,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>444</v>
@@ -12667,22 +12667,22 @@
         <v>0.04545454545454546</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
         <v>3</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>445</v>
@@ -12720,13 +12720,13 @@
         <v>1</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E182">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F182">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
@@ -12767,22 +12767,22 @@
         <v>0.04545454545454546</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>447</v>
@@ -12814,25 +12814,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>448</v>
@@ -12864,28 +12864,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K185">
         <v>0.1732283464566929</v>
@@ -12920,16 +12920,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>22</v>
@@ -12964,28 +12964,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K187">
         <v>0.169811320754717</v>
@@ -13014,28 +13014,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K188">
         <v>0.1691729323308271</v>
@@ -13064,25 +13064,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>450</v>
@@ -13114,28 +13114,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K190">
         <v>0.1669266770670827</v>
@@ -13170,16 +13170,16 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
         <v>24</v>
@@ -13214,25 +13214,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.04</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>452</v>
@@ -13264,25 +13264,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.04</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F193">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>453</v>
@@ -13314,25 +13314,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03787878787878788</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C194">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>454</v>
@@ -13364,25 +13364,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>455</v>
@@ -13420,13 +13420,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E196">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -13435,7 +13435,7 @@
         <v>26</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K196">
         <v>0.1666666666666667</v>
@@ -13464,28 +13464,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K197">
         <v>0.1666666666666667</v>
@@ -13514,25 +13514,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>456</v>
@@ -13570,16 +13570,16 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
         <v>27</v>
@@ -13620,16 +13620,16 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>27</v>
@@ -13714,25 +13714,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F202">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>460</v>
@@ -13764,25 +13764,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>461</v>
@@ -13817,22 +13817,22 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>462</v>
@@ -13864,25 +13864,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>463</v>
@@ -13914,25 +13914,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>464</v>
@@ -13964,25 +13964,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>465</v>
@@ -14014,25 +14014,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.03333333333333333</v>
+        <v>0.03249097472924187</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>466</v>
@@ -14064,25 +14064,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>467</v>
@@ -14114,25 +14114,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.03249097472924187</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C210">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>468</v>
@@ -14164,25 +14164,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E211">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="F211">
-        <v>0.07999999999999996</v>
+        <v>0.22</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>469</v>
@@ -14214,25 +14214,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.03225806451612903</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>470</v>
@@ -14264,25 +14264,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.03174603174603174</v>
+        <v>0.03125</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>471</v>
@@ -14314,25 +14314,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.03157894736842105</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="C214">
         <v>3</v>
       </c>
       <c r="D214">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>472</v>
@@ -14364,25 +14364,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.03125</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D215">
         <v>5</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>473</v>
@@ -14414,25 +14414,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.03061224489795918</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>474</v>
@@ -14464,25 +14464,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.03012048192771084</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>475</v>
@@ -14514,13 +14514,13 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E218">
         <v>0.75</v>
@@ -14532,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>476</v>
@@ -14564,25 +14564,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>477</v>
@@ -14614,25 +14614,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>478</v>
@@ -14664,25 +14664,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E221">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>479</v>
@@ -14714,25 +14714,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>480</v>
@@ -14764,25 +14764,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>481</v>
@@ -14814,25 +14814,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02631578947368421</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D224">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>482</v>
@@ -14864,25 +14864,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02631578947368421</v>
+        <v>0.02573529411764706</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E225">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F225">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>483</v>
@@ -14914,28 +14914,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02608695652173913</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F226">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K226">
         <v>0.1639344262295082</v>
@@ -14964,28 +14964,28 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02573529411764706</v>
+        <v>0.025</v>
       </c>
       <c r="C227">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K227">
         <v>0.1636363636363636</v>
@@ -15014,25 +15014,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02564102564102564</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>484</v>
@@ -15064,7 +15064,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -15082,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>485</v>
@@ -15114,25 +15114,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>486</v>
@@ -15164,25 +15164,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>487</v>
@@ -15214,28 +15214,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02380952380952381</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="C232">
         <v>6</v>
       </c>
       <c r="D232">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K232">
         <v>0.16</v>
@@ -15264,7 +15264,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -15282,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>488</v>
@@ -15314,25 +15314,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.02290076335877863</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C234">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>489</v>
@@ -15370,13 +15370,13 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
@@ -15385,7 +15385,7 @@
         <v>43</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K235">
         <v>0.1578947368421053</v>
@@ -15414,25 +15414,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>490</v>
@@ -15464,25 +15464,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>491</v>
@@ -15514,28 +15514,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E238">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F238">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K238">
         <v>0.1576086956521739</v>
@@ -15564,28 +15564,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K239">
         <v>0.156794425087108</v>
@@ -15614,25 +15614,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F240">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>492</v>
@@ -15664,25 +15664,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E241">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F241">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>493</v>
@@ -15714,25 +15714,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02127659574468085</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F242">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>494</v>
@@ -15764,25 +15764,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E243">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F243">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>495</v>
@@ -15814,25 +15814,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.02072538860103627</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C244">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D244">
+        <v>15</v>
+      </c>
+      <c r="E244">
+        <v>0.93</v>
+      </c>
+      <c r="F244">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244">
         <v>48</v>
-      </c>
-      <c r="E244">
-        <v>0.92</v>
-      </c>
-      <c r="F244">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244">
-        <v>189</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>496</v>
@@ -15864,25 +15864,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E245">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F245">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>497</v>
@@ -15914,28 +15914,28 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.02040816326530612</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E246">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F246">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K246">
         <v>0.1531531531531531</v>
@@ -15964,28 +15964,28 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K247">
         <v>0.1530612244897959</v>
@@ -16014,13 +16014,13 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0198019801980198</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E248">
         <v>0.9399999999999999</v>
@@ -16032,10 +16032,10 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K248">
         <v>0.1515151515151515</v>
@@ -16064,25 +16064,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>498</v>
@@ -16114,13 +16114,13 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01923076923076923</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D250">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="E250">
         <v>0.9399999999999999</v>
@@ -16132,10 +16132,10 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K250">
         <v>0.1494252873563219</v>
@@ -16164,25 +16164,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F251">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>499</v>
@@ -16214,25 +16214,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01904761904761905</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C252">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="E252">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F252">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>309</v>
+        <v>104</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>500</v>
@@ -16264,25 +16264,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01886792452830189</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E253">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F253">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>501</v>
@@ -16314,25 +16314,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01886792452830189</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C254">
         <v>2</v>
       </c>
       <c r="D254">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E254">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F254">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>502</v>
@@ -16364,28 +16364,28 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01869158878504673</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D255">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E255">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="F255">
-        <v>0.08999999999999997</v>
+        <v>0.23</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K255">
         <v>0.1463414634146341</v>
@@ -16414,25 +16414,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01869158878504673</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E256">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F256">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>503</v>
@@ -16464,25 +16464,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01863354037267081</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E257">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="F257">
-        <v>0.23</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>504</v>
@@ -16514,25 +16514,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>505</v>
@@ -16564,25 +16564,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01834862385321101</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>506</v>
@@ -16614,25 +16614,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>507</v>
@@ -16670,16 +16670,16 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
         <v>55</v>
@@ -16714,25 +16714,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>509</v>
@@ -16764,25 +16764,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01785714285714286</v>
+        <v>0.01728110599078341</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D263">
-        <v>12</v>
+        <v>437</v>
       </c>
       <c r="E263">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F263">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>55</v>
+        <v>1706</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>510</v>
@@ -16814,25 +16814,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>511</v>
@@ -16864,25 +16864,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01728110599078341</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C265">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>437</v>
+        <v>16</v>
       </c>
       <c r="E265">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F265">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>1706</v>
+        <v>57</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>512</v>
@@ -16920,13 +16920,13 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E266">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F266">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
@@ -16964,25 +16964,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01724137931034483</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E267">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="F267">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>514</v>
@@ -17014,25 +17014,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F268">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>515</v>
@@ -17064,25 +17064,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01680672268907563</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D269">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="E269">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="F269">
-        <v>0.18</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>117</v>
+        <v>534</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>516</v>
@@ -17114,25 +17114,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01666666666666667</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E270">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F270">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>517</v>
@@ -17164,25 +17164,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01657458563535912</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C271">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="E271">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F271">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>534</v>
+        <v>60</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>518</v>
@@ -17214,25 +17214,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01652892561983471</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E272">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>519</v>
@@ -17264,25 +17264,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.01639344262295082</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E273">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F273">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>520</v>
@@ -17314,25 +17314,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E274">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F274">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>521</v>
@@ -17364,25 +17364,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.01612903225806452</v>
+        <v>0.01451378809869376</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D275">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="E275">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F275">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>61</v>
+        <v>679</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>522</v>
@@ -17414,25 +17414,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01538461538461539</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E276">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F276">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>523</v>
@@ -17464,25 +17464,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01451378809869376</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C277">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="E277">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F277">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>679</v>
+        <v>69</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>524</v>
@@ -17514,25 +17514,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01428571428571429</v>
+        <v>0.01411509229098806</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D278">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E278">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="F278">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>69</v>
+        <v>908</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>525</v>
@@ -17564,25 +17564,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01428571428571429</v>
+        <v>0.01340482573726542</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D279">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279">
-        <v>69</v>
+        <v>368</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>526</v>
@@ -17614,25 +17614,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01411509229098806</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C280">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E280">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="F280">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>908</v>
+        <v>74</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>527</v>
@@ -17664,25 +17664,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.01340482573726542</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C281">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281">
-        <v>368</v>
+        <v>74</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>528</v>
@@ -17714,25 +17714,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01333333333333333</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E282">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F282">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>529</v>
@@ -17764,25 +17764,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01333333333333333</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E283">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F283">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>530</v>
@@ -17814,25 +17814,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.0131578947368421</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E284">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F284">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>531</v>
@@ -17864,25 +17864,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01298701298701299</v>
+        <v>0.01251513928138878</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D285">
-        <v>10</v>
+        <v>661</v>
       </c>
       <c r="E285">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F285">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>76</v>
+        <v>2446</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>532</v>
@@ -17914,25 +17914,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01282051282051282</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E286">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F286">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>533</v>
@@ -17964,25 +17964,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01251513928138878</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="C287">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D287">
-        <v>661</v>
+        <v>50</v>
       </c>
       <c r="E287">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F287">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>2446</v>
+        <v>495</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>534</v>
@@ -18014,25 +18014,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.01219512195121951</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E288">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F288">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>535</v>
@@ -18064,13 +18064,13 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.01197604790419162</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C289">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E289">
         <v>0.88</v>
@@ -18082,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>495</v>
+        <v>87</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>536</v>
@@ -18114,25 +18114,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.0119047619047619</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E290">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F290">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H290">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>537</v>
@@ -18164,25 +18164,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01136363636363636</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E291">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F291">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>538</v>
@@ -18214,25 +18214,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01111111111111111</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>539</v>
@@ -18270,13 +18270,13 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E293">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F293">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
@@ -18314,25 +18314,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01052631578947368</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E294">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F294">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>541</v>
@@ -18364,25 +18364,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.01052631578947368</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E295">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F295">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>542</v>
@@ -18414,28 +18414,28 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.01041666666666667</v>
+        <v>0.01</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E296">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F296">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K296">
         <v>0.1411042944785276</v>
@@ -18464,28 +18464,28 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.01030927835051546</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E297">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F297">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K297">
         <v>0.1401869158878505</v>
@@ -18514,25 +18514,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E298">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F298">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>543</v>
@@ -18564,28 +18564,28 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.009803921568627451</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E299">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F299">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K299">
         <v>0.1397058823529412</v>
@@ -18614,25 +18614,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.009523809523809525</v>
+        <v>0.009111617312072893</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D300">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="E300">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F300">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>104</v>
+        <v>435</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>544</v>
@@ -18664,13 +18664,13 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.009523809523809525</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E301">
         <v>0.97</v>
@@ -18682,10 +18682,10 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K301">
         <v>0.1390134529147982</v>
@@ -18714,13 +18714,13 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.009111617312072893</v>
+        <v>0.008683068017366137</v>
       </c>
       <c r="C302">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D302">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="E302">
         <v>0.97</v>
@@ -18732,7 +18732,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>435</v>
+        <v>685</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>545</v>
@@ -18764,25 +18764,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.008695652173913044</v>
+        <v>0.008670520231213872</v>
       </c>
       <c r="C303">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D303">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="E303">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F303">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>114</v>
+        <v>1029</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>546</v>
@@ -18814,25 +18814,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.008683068017366137</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C304">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D304">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="E304">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F304">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>685</v>
+        <v>117</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>547</v>
@@ -18864,25 +18864,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.008670520231213872</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="C305">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D305">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="E305">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F305">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>1029</v>
+        <v>235</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>548</v>
@@ -18914,25 +18914,25 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.008474576271186441</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D306">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="E306">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F306">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>117</v>
+        <v>726</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>549</v>
@@ -18964,25 +18964,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.008438818565400843</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C307">
         <v>2</v>
       </c>
       <c r="D307">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E307">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F307">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>550</v>
@@ -19014,25 +19014,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.00819672131147541</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C308">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E308">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F308">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>726</v>
+        <v>125</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>551</v>
@@ -19064,25 +19064,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.008130081300813009</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E309">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F309">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>552</v>
@@ -19114,25 +19114,25 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.007936507936507936</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E310">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F310">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>553</v>
@@ -19164,25 +19164,25 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.007633587786259542</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E311">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F311">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>554</v>
@@ -19214,25 +19214,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.007092198581560284</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E312">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F312">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>555</v>
@@ -19264,25 +19264,25 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.007042253521126761</v>
+        <v>0.005633802816901409</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="E313">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F313">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>141</v>
+        <v>353</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>556</v>
@@ -19314,25 +19314,25 @@
         <v>319</v>
       </c>
       <c r="B314">
-        <v>0.00641025641025641</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E314">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F314">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>557</v>
@@ -19364,25 +19364,25 @@
         <v>320</v>
       </c>
       <c r="B315">
-        <v>0.005633802816901409</v>
+        <v>0.005032350826743351</v>
       </c>
       <c r="C315">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D315">
-        <v>133</v>
+        <v>433</v>
       </c>
       <c r="E315">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F315">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G315" t="b">
         <v>1</v>
       </c>
       <c r="H315">
-        <v>353</v>
+        <v>2768</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>558</v>
@@ -19414,28 +19414,28 @@
         <v>321</v>
       </c>
       <c r="B316">
-        <v>0.005376344086021506</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E316">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F316">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K316">
         <v>0.1333333333333333</v>
@@ -19464,25 +19464,25 @@
         <v>322</v>
       </c>
       <c r="B317">
-        <v>0.005032350826743351</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="C317">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D317">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="E317">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F317">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G317" t="b">
         <v>1</v>
       </c>
       <c r="H317">
-        <v>2768</v>
+        <v>221</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>559</v>
@@ -19514,28 +19514,28 @@
         <v>323</v>
       </c>
       <c r="B318">
-        <v>0.004878048780487805</v>
+        <v>0.004434589800443459</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D318">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E318">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="F318">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>204</v>
+        <v>449</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K318">
         <v>0.1314716033887669</v>
@@ -19564,25 +19564,25 @@
         <v>324</v>
       </c>
       <c r="B319">
-        <v>0.004504504504504504</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E319">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F319">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>560</v>
@@ -19614,25 +19614,25 @@
         <v>325</v>
       </c>
       <c r="B320">
-        <v>0.004434589800443459</v>
+        <v>0.003484320557491289</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E320">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F320">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>449</v>
+        <v>286</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>561</v>
@@ -19664,25 +19664,25 @@
         <v>326</v>
       </c>
       <c r="B321">
-        <v>0.004273504273504274</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E321">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F321">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>562</v>
@@ -19710,32 +19710,8 @@
       </c>
     </row>
     <row r="322" spans="1:17">
-      <c r="A322" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B322">
-        <v>0.003484320557491289</v>
-      </c>
-      <c r="C322">
-        <v>1</v>
-      </c>
-      <c r="D322">
-        <v>7</v>
-      </c>
-      <c r="E322">
-        <v>0.86</v>
-      </c>
-      <c r="F322">
-        <v>0.14</v>
-      </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322">
-        <v>286</v>
-      </c>
       <c r="J322" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K322">
         <v>0.1296296296296296</v>
@@ -19760,30 +19736,6 @@
       </c>
     </row>
     <row r="323" spans="1:17">
-      <c r="A323" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B323">
-        <v>0.003012048192771084</v>
-      </c>
-      <c r="C323">
-        <v>1</v>
-      </c>
-      <c r="D323">
-        <v>29</v>
-      </c>
-      <c r="E323">
-        <v>0.97</v>
-      </c>
-      <c r="F323">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323">
-        <v>331</v>
-      </c>
       <c r="J323" s="1" t="s">
         <v>563</v>
       </c>
@@ -20019,7 +19971,7 @@
     </row>
     <row r="332" spans="1:17">
       <c r="J332" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K332">
         <v>0.1264367816091954</v>
@@ -20045,7 +19997,7 @@
     </row>
     <row r="333" spans="1:17">
       <c r="J333" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K333">
         <v>0.1254480286738351</v>
@@ -20305,7 +20257,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K343">
         <v>0.125</v>
@@ -21137,7 +21089,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K375">
         <v>0.1224489795918367</v>
@@ -21293,7 +21245,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K381">
         <v>0.12</v>
@@ -21553,7 +21505,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K391">
         <v>0.1176470588235294</v>
@@ -21683,7 +21635,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K396">
         <v>0.1142857142857143</v>
@@ -22281,7 +22233,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K419">
         <v>0.1111111111111111</v>
@@ -22541,7 +22493,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K429">
         <v>0.1090909090909091</v>
@@ -22697,7 +22649,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K435">
         <v>0.1067708333333333</v>
@@ -22723,7 +22675,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K436">
         <v>0.1058823529411765</v>
@@ -22957,7 +22909,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K445">
         <v>0.1029411764705882</v>
@@ -23945,7 +23897,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K483">
         <v>0.09734513274336283</v>
@@ -24075,7 +24027,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K488">
         <v>0.09615384615384616</v>
@@ -24101,7 +24053,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K489">
         <v>0.09523809523809523</v>
@@ -24283,7 +24235,7 @@
     </row>
     <row r="496" spans="10:17">
       <c r="J496" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K496">
         <v>0.09375</v>
@@ -24413,7 +24365,7 @@
     </row>
     <row r="501" spans="10:17">
       <c r="J501" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K501">
         <v>0.09230769230769231</v>
@@ -24543,7 +24495,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K506">
         <v>0.09090909090909091</v>
@@ -24777,7 +24729,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K515">
         <v>0.09090909090909091</v>
@@ -24829,7 +24781,7 @@
     </row>
     <row r="517" spans="10:17">
       <c r="J517" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K517">
         <v>0.09090909090909091</v>
@@ -25531,7 +25483,7 @@
     </row>
     <row r="544" spans="10:17">
       <c r="J544" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K544">
         <v>0.08759124087591241</v>
@@ -25661,7 +25613,7 @@
     </row>
     <row r="549" spans="10:17">
       <c r="J549" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K549">
         <v>0.08695652173913043</v>
@@ -25687,7 +25639,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K550">
         <v>0.08641975308641975</v>
@@ -25739,7 +25691,7 @@
     </row>
     <row r="552" spans="10:17">
       <c r="J552" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K552">
         <v>0.08620689655172414</v>
@@ -25817,7 +25769,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K555">
         <v>0.0851063829787234</v>
@@ -26129,7 +26081,7 @@
     </row>
     <row r="567" spans="10:17">
       <c r="J567" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K567">
         <v>0.08333333333333333</v>
@@ -26181,7 +26133,7 @@
     </row>
     <row r="569" spans="10:17">
       <c r="J569" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K569">
         <v>0.08333333333333333</v>
@@ -26545,7 +26497,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K583">
         <v>0.08163265306122448</v>
@@ -26675,7 +26627,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K588">
         <v>0.08064516129032258</v>
@@ -26701,7 +26653,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K589">
         <v>0.08</v>
@@ -26727,7 +26679,7 @@
     </row>
     <row r="590" spans="10:17">
       <c r="J590" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K590">
         <v>0.08</v>
@@ -26831,7 +26783,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K594">
         <v>0.07894736842105263</v>
@@ -26935,7 +26887,7 @@
     </row>
     <row r="598" spans="10:17">
       <c r="J598" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K598">
         <v>0.07799442896935933</v>
@@ -27767,7 +27719,7 @@
     </row>
     <row r="630" spans="10:17">
       <c r="J630" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K630">
         <v>0.07446808510638298</v>
@@ -28079,7 +28031,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K642">
         <v>0.07142857142857142</v>
@@ -28157,7 +28109,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K645">
         <v>0.07142857142857142</v>
@@ -29015,7 +28967,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K678">
         <v>0.06818181818181818</v>
@@ -29145,7 +29097,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K683">
         <v>0.06666666666666667</v>
@@ -29197,7 +29149,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K685">
         <v>0.06666666666666667</v>
@@ -29483,7 +29435,7 @@
     </row>
     <row r="696" spans="10:17">
       <c r="J696" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K696">
         <v>0.06666666666666667</v>
@@ -29743,7 +29695,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K706">
         <v>0.06521739130434782</v>
@@ -29847,7 +29799,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K710">
         <v>0.06382978723404255</v>
@@ -30367,7 +30319,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K730">
         <v>0.06153846153846154</v>
@@ -30445,7 +30397,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K733">
         <v>0.06122448979591837</v>
@@ -30627,7 +30579,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K740">
         <v>0.05952380952380952</v>
@@ -31277,7 +31229,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K765">
         <v>0.05555555555555555</v>
@@ -31433,7 +31385,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K771">
         <v>0.05454545454545454</v>
@@ -31849,7 +31801,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K787">
         <v>0.05263157894736842</v>
@@ -31979,7 +31931,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K792">
         <v>0.05128205128205128</v>
@@ -32031,7 +31983,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K794">
         <v>0.05109489051094891</v>
@@ -32135,7 +32087,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K798">
         <v>0.05</v>
@@ -32369,7 +32321,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K807">
         <v>0.04921465968586387</v>
@@ -32577,7 +32529,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K815">
         <v>0.04761904761904762</v>
@@ -32811,7 +32763,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K824">
         <v>0.04545454545454546</v>
@@ -33149,7 +33101,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K837">
         <v>0.04347826086956522</v>
@@ -33357,7 +33309,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K845">
         <v>0.04166666666666666</v>
@@ -33695,7 +33647,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K858">
         <v>0.03846153846153846</v>
@@ -33799,7 +33751,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K862">
         <v>0.0380952380952381</v>
@@ -33877,7 +33829,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K865">
         <v>0.03703703703703703</v>
@@ -34085,7 +34037,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K873">
         <v>0.03571428571428571</v>
@@ -34137,7 +34089,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K875">
         <v>0.03571428571428571</v>
@@ -34657,7 +34609,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K895">
         <v>0.02813852813852814</v>
@@ -34839,7 +34791,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K902">
         <v>0.02702702702702703</v>
@@ -35333,7 +35285,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K921">
         <v>0.02325581395348837</v>
@@ -35437,7 +35389,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K925">
         <v>0.02083333333333333</v>
@@ -35463,7 +35415,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K926">
         <v>0.02054794520547945</v>
@@ -35541,7 +35493,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K929">
         <v>0.01724137931034483</v>
@@ -35593,7 +35545,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K931">
         <v>0.01595744680851064</v>
@@ -35801,7 +35753,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K939">
         <v>0.008510638297872341</v>
